--- a/truck/Table/Skill.xlsx
+++ b/truck/Table/Skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D08413-6E8A-47E6-B625-786476CE5E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF8B7AC-CF5F-4608-86F6-294C9A20CF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
@@ -20,31 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,10 +148,6 @@
   </si>
   <si>
     <t>플레이어 가스 5</t>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스킬의 유형
@@ -222,6 +205,10 @@
   </si>
   <si>
     <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,9 +300,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,7 +638,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -678,70 +662,70 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -751,7 +735,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -760,122 +744,122 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>200</v>
@@ -883,141 +867,141 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
         <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
       </c>
       <c r="K9">
         <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9">
         <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
         <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
       </c>
       <c r="K10">
         <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10">
         <v>200</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
         <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
       </c>
       <c r="K11">
         <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11">
         <v>300</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
         <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
       </c>
       <c r="K12">
         <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M12">
         <v>400</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
         <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
       </c>
       <c r="K13">
         <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M13">
         <v>500</v>
@@ -1025,22 +1009,22 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
         <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M14">
         <v>100</v>

--- a/truck/Table/Skill.xlsx
+++ b/truck/Table/Skill.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF8B7AC-CF5F-4608-86F6-294C9A20CF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD737960-ECB2-455B-949A-8E8230463A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
-    <sheet name="Skill" sheetId="1" r:id="rId1"/>
+    <sheet name="#Skill" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/truck/Table/Skill.xlsx
+++ b/truck/Table/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kci\kci\truck\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33bf0fafc20c3a33/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD737960-ECB2-455B-949A-8E8230463A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{8C69AC4C-644D-4D99-876C-89C1EA30F897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16EFD65F-1845-48D3-816F-1D37F92C13FD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="11595" yWindow="1710" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Skill" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,16 +39,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CoolTimeDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬 쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 내부 쿨타임
-(동시에 쿨 돌때 난사 방지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,126 +80,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PLAYER = 플레이어
-MON = 몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소화전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPAWN_OBJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHIELD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpgradeCurerency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpgradeCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 가스 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 가스 2</t>
-  </si>
-  <si>
-    <t>플레이어 가스 3</t>
-  </si>
-  <si>
-    <t>플레이어 가스 4</t>
-  </si>
-  <si>
-    <t>플레이어 가스 5</t>
-  </si>
-  <si>
-    <t>스킬의 유형
-SPAWN_MONSTER
-(enum화 필요할듯)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사탄_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사탄_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사탄_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TargetingType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타게팅 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사탄_소화전_충돌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사탄_소화전_소환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 유형
+Instant: 즉발
+Missile: 투사체
+Moveobject: 해당 구역에 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타게팅 타입
+TOWER: 아군 타워
+MON: 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_2</t>
+  </si>
+  <si>
+    <t>Tower_3</t>
+  </si>
+  <si>
+    <t>Tower_4</t>
+  </si>
+  <si>
+    <t>Tower_5</t>
+  </si>
+  <si>
+    <t>Tower_6</t>
+  </si>
+  <si>
+    <t>타워레벨업당 상승 스킬계수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,6 +232,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,399 +555,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="21.625" customWidth="1"/>
-    <col min="10" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.375" customWidth="1"/>
-    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
       <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9">
-        <v>50</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9">
-        <v>100</v>
-      </c>
-      <c r="N9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10">
-        <v>75</v>
-      </c>
-      <c r="L10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10">
-        <v>200</v>
-      </c>
-      <c r="N10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11">
-        <v>300</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12">
-        <v>400</v>
-      </c>
-      <c r="N12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13">
-        <v>150</v>
-      </c>
-      <c r="L13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14">
-        <v>150</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14">
-        <v>100</v>
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/truck/Table/Skill.xlsx
+++ b/truck/Table/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33bf0fafc20c3a33/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{8C69AC4C-644D-4D99-876C-89C1EA30F897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16EFD65F-1845-48D3-816F-1D37F92C13FD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8838FB20-F630-49A6-AB69-953B5363F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11595" yWindow="1710" windowWidth="25560" windowHeight="14685" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Skill" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -653,6 +653,12 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
@@ -664,6 +670,12 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
@@ -675,6 +687,12 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
@@ -686,6 +704,12 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
@@ -697,6 +721,12 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
@@ -707,6 +737,12 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>

--- a/truck/Table/Skill.xlsx
+++ b/truck/Table/Skill.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8838FB20-F630-49A6-AB69-953B5363F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C234124-B373-4981-B237-A15F21402AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
-    <sheet name="#Skill" sheetId="1" r:id="rId1"/>
+    <sheet name="Skill" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -558,7 +558,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
